--- a/Calibration/初期ヨー角計算シート.xlsx
+++ b/Calibration/初期ヨー角計算シート.xlsx
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F5"/>
+  <dimension ref="B3:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -406,7 +406,7 @@
     <col min="2" max="9" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -414,36 +414,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" t="e">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B4">
         <f>DEGREES(C4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C4" t="e">
+        <v>-154.58348301913838</v>
+      </c>
+      <c r="C4">
         <f>ATAN2(E4,E5)</f>
-        <v>#DIV/0!</v>
+        <v>-2.6979907478847092</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4">
         <f>RADIANS(G4)</f>
-        <v>0</v>
+        <v>-0.21111455525686898</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
       </c>
+      <c r="G4">
+        <v>-12.09597301</v>
+      </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C5">
+        <f>ATAN2(G4,G5)</f>
+        <v>-2.6979907478847092</v>
+      </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5">
         <f>RADIANS(G5)</f>
-        <v>0</v>
+        <v>-0.10031915228045012</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
+      </c>
+      <c r="G5">
+        <v>-5.7478640299999997</v>
       </c>
     </row>
   </sheetData>
